--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Forgot password_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Forgot password_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$62</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$25</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$46</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$60</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$23</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$44</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$69</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -313,7 +313,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$17</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="152">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -694,12 +694,6 @@
   </si>
   <si>
     <t>1.2.1.1</t>
-  </si>
-  <si>
-    <t>1.2.1.2</t>
-  </si>
-  <si>
-    <t>1.2.1.3</t>
   </si>
   <si>
     <t>1.2.2</t>
@@ -1001,22 +995,9 @@
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Forgot password</t>
   </si>
   <si>
-    <t>Can type max 32 characters, not less than 6 characters</t>
-  </si>
-  <si>
-    <t>- Items:
-+ "Nhập tên tài khoản" textbox
-+"Nhập email" textbox
-+ "Mã xác nhận" textbox
-+ "Gửi yêu cầu" button</t>
-  </si>
-  <si>
     <t>UJD_VN_TestViewpoint_Forgot password_v1.0_EN</t>
   </si>
   <si>
@@ -1027,24 +1008,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Capcha</t>
-  </si>
-  <si>
-    <t>Input email in "Nhập email" textbox</t>
-  </si>
-  <si>
-    <t>Input username  in "Nhập tên tài khoản" textbox</t>
-  </si>
-  <si>
-    <t>Input capcha in "Mã xác nhận" textbox</t>
-  </si>
-  <si>
-    <t>Can type max 100 characters, not less than 6 characters</t>
-  </si>
-  <si>
-    <t>Input the verification code</t>
   </si>
   <si>
     <t xml:space="preserve">- Input incorrect information
@@ -1070,6 +1033,18 @@
     <t>- Web title: Quên mật khẩu
 - Display normally, there is not push, breaking font
 - Display text, textbox, button, color, background and arrangement</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
+  </si>
+  <si>
+    <t>Input username  in "Nhập email" textbox</t>
+  </si>
+  <si>
+    <t>- Display full item
+- Title is centered
+- All items (text and textbox, button) is left-aligned
+- Text's color is black and title's color is blue, required fields marked in red</t>
   </si>
 </sst>
 </file>
@@ -2775,7 +2750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2956,9 +2931,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="29" borderId="30" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="42" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="271" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3505,20 +3477,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Description: C:\Users\NgocTuan\Desktop\reset.PNG"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3538,8 +3510,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2143125" y="447675"/>
-          <a:ext cx="5276850" cy="3324225"/>
+          <a:off x="1524000" y="771525"/>
+          <a:ext cx="5353050" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6277,14 +6249,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6299,59 +6271,59 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="C4" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="C5" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="C6" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6374,10 +6346,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6393,12 +6365,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6407,13 +6379,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6421,8 +6393,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6430,8 +6402,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6439,8 +6411,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6448,8 +6420,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6457,8 +6429,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6492,10 +6464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6558,56 +6530,56 @@
       <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="113" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="41"/>
@@ -6616,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6663,7 +6635,7 @@
       <c r="K8" s="52"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" s="44" customFormat="1" ht="54">
+    <row r="9" spans="1:12" s="44" customFormat="1" ht="58.5" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="49" t="s">
@@ -6688,10 +6660,10 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="67.5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="79.5" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -6716,7 +6688,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6746,7 +6718,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6765,7 +6737,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6777,51 +6749,41 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="L13" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63" t="s">
-        <v>147</v>
+      <c r="D15" s="49"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56" t="s">
+        <v>137</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6833,949 +6795,932 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="55"/>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1" ht="27">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1" ht="27">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="73"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="73"/>
-    </row>
-    <row r="22" spans="1:12" s="44" customFormat="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="73"/>
-    </row>
-    <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="73"/>
-    </row>
-    <row r="25" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="72"/>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="72"/>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+    </row>
+    <row r="24" spans="1:12" s="44" customFormat="1">
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+    </row>
+    <row r="25" spans="1:12" s="44" customFormat="1">
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="72"/>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="72"/>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="73"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="72"/>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="73"/>
-    </row>
-    <row r="29" spans="1:12" s="44" customFormat="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="73"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+    </row>
+    <row r="29" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="74"/>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="75"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1">
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
     </row>
     <row r="33" spans="1:12" s="44" customFormat="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1">
-      <c r="A34" s="65"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1">
-      <c r="A35" s="65"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-    </row>
-    <row r="36" spans="1:12" s="44" customFormat="1">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+    </row>
+    <row r="36" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
     </row>
     <row r="37" spans="1:12" s="44" customFormat="1">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-    </row>
-    <row r="38" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+    </row>
+    <row r="38" spans="1:12" s="44" customFormat="1">
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1">
-      <c r="A39" s="65"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
     </row>
     <row r="40" spans="1:12" s="44" customFormat="1">
-      <c r="A40" s="65"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
     </row>
     <row r="43" spans="1:12" s="44" customFormat="1">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
     </row>
     <row r="44" spans="1:12" s="44" customFormat="1">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="72"/>
     </row>
     <row r="47" spans="1:12" s="44" customFormat="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="72"/>
     </row>
     <row r="48" spans="1:12" s="44" customFormat="1">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="73"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="72"/>
     </row>
     <row r="49" spans="1:12" s="44" customFormat="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="73"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="72"/>
     </row>
     <row r="50" spans="1:12" s="44" customFormat="1">
-      <c r="A50" s="65"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="73"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="72"/>
     </row>
     <row r="51" spans="1:12" s="44" customFormat="1">
-      <c r="A51" s="65"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="73"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="72"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1">
-      <c r="A52" s="65"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="73"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="72"/>
     </row>
     <row r="53" spans="1:12" s="44" customFormat="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="73"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="72"/>
     </row>
     <row r="54" spans="1:12" s="44" customFormat="1">
-      <c r="A54" s="65"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="73"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="72"/>
     </row>
     <row r="55" spans="1:12" s="44" customFormat="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="73"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="72"/>
     </row>
     <row r="56" spans="1:12" s="44" customFormat="1">
-      <c r="A56" s="65"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="73"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
     </row>
     <row r="57" spans="1:12" s="44" customFormat="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="73"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
-      <c r="A58" s="65"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
     </row>
     <row r="59" spans="1:12" s="44" customFormat="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" s="44" customFormat="1">
-      <c r="A60" s="65"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
     </row>
     <row r="61" spans="1:12" s="44" customFormat="1">
-      <c r="A61" s="65"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="67"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
-      <c r="A62" s="65"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="69"/>
     </row>
     <row r="64" spans="1:12" s="44" customFormat="1">
-      <c r="A64" s="65"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
     </row>
     <row r="65" spans="1:13" s="44" customFormat="1">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="70"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="76"/>
     </row>
     <row r="66" spans="1:13" s="44" customFormat="1">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="69"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="68"/>
       <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
+      <c r="L66" s="76"/>
     </row>
     <row r="67" spans="1:13" s="44" customFormat="1">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="77"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="76"/>
     </row>
     <row r="68" spans="1:13" s="44" customFormat="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="77"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="76"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
       <c r="C69" s="69"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="77"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="69"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="77"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="76"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="70"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="76"/>
     </row>
     <row r="72" spans="1:13" s="44" customFormat="1">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="69"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="69"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="77"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="37"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="77"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="37"/>
-    </row>
-    <row r="75" spans="1:13" s="44" customFormat="1">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="76"/>
+      <c r="M73" s="37"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="76"/>
+      <c r="M74" s="44"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
       <c r="C75" s="69"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="69"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="77"/>
-      <c r="M75" s="37"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="44"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="69"/>
+    </row>
+    <row r="76" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A76" s="64"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="37"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
       <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="70"/>
-    </row>
-    <row r="78" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A78" s="65"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="79"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="37"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="69"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="65"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="70"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="44"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="38"/>
@@ -7791,7 +7736,7 @@
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -7804,7 +7749,7 @@
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
-      <c r="M82" s="44"/>
+      <c r="M82" s="37"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="38"/>
@@ -7819,8 +7764,9 @@
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
-    </row>
-    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M83" s="44"/>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -7833,9 +7779,8 @@
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
-      <c r="M84" s="37"/>
-    </row>
-    <row r="85" spans="1:13">
+    </row>
+    <row r="85" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -7848,7 +7793,7 @@
       <c r="J85" s="38"/>
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
-      <c r="M85" s="44"/>
+      <c r="M85" s="37"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="38"/>
@@ -7863,8 +7808,9 @@
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="38"/>
-    </row>
-    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M86" s="44"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -7877,9 +7823,9 @@
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
-      <c r="M87" s="37"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="M87" s="44"/>
+    </row>
+    <row r="88" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -7892,76 +7838,46 @@
       <c r="J88" s="38"/>
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
-      <c r="M88" s="44"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="44"/>
-    </row>
-    <row r="90" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="37"/>
-    </row>
-    <row r="91" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A91" s="65"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="37"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="65"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="67"/>
-    </row>
+      <c r="M88" s="37"/>
+    </row>
+    <row r="89" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A89" s="64"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="66"/>
+      <c r="M89" s="37"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="64"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+    </row>
+    <row r="97" ht="37.5" customHeight="1"/>
+    <row r="98" ht="37.5" customHeight="1"/>
     <row r="99" ht="37.5" customHeight="1"/>
     <row r="100" ht="37.5" customHeight="1"/>
-    <row r="101" ht="37.5" customHeight="1"/>
-    <row r="102" ht="37.5" customHeight="1"/>
-    <row r="104" ht="18" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="109" ht="30" customHeight="1"/>
-    <row r="113" ht="44.25" customHeight="1"/>
-    <row r="114" ht="45" customHeight="1"/>
+    <row r="102" ht="18" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="107" ht="30" customHeight="1"/>
+    <row r="111" ht="44.25" customHeight="1"/>
+    <row r="112" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -7979,19 +7895,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I77 I46 I74 I71 I65 I80">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I75 I44 I72 I69 I63 I78">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J77 J46 J74 J71 J65 J80">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J75 J44 J72 J69 J63 J78">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H91:H92 H26:H77 H79:H80 H8:H10 H13:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H89:H90 H24:H75 H77:H78 H8:H10 H13:H22">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I91:I92 I26:I45 I47:I64 I75:I76 I72:I73 I66:I70 I79 I8:I10 I13:I24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I89:I90 I24:I43 I45:I62 I73:I74 I70:I71 I64:I68 I77 I8:I10 I13:I22">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J66:J70 J72:J73 J79 J75:J76 J47:J64 J26:J45 J91:J92 J8:J10 J13:J24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J70:J71 J77 J73:J74 J45:J62 J24:J43 J89:J90 J8:J10 J13:J22">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8006,14 +7922,14 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="80" t="s">
-        <v>157</v>
+      <c r="A2" s="79" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -8041,241 +7957,241 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="G2" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="83"/>
+      <c r="H5" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="83"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -8294,401 +8210,401 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="87" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="108.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="87" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="87"/>
+    <col min="1" max="1" width="2.875" style="86" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108.625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="86" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="86"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="87" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="88" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="88"/>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B6" s="115"/>
+      <c r="C6" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="24" customHeight="1">
+      <c r="B7" s="116"/>
+      <c r="C7" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21.75" customHeight="1">
+      <c r="B8" s="116"/>
+      <c r="C8" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="116"/>
+      <c r="C9" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="23.25" customHeight="1">
+      <c r="B10" s="117"/>
+      <c r="C10" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B11" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="88"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="115"/>
+      <c r="C12" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="116"/>
+      <c r="C13" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="38.25">
+      <c r="B14" s="116"/>
+      <c r="C14" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="117"/>
+      <c r="C15" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="95"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="89"/>
-    </row>
-    <row r="6" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B6" s="116"/>
-      <c r="C6" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="24" customHeight="1">
-      <c r="B7" s="117"/>
-      <c r="C7" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="21.75" customHeight="1">
-      <c r="B8" s="117"/>
-      <c r="C8" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="117"/>
-      <c r="C9" s="93" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="88"/>
+    </row>
+    <row r="17" spans="2:5" ht="25.5">
+      <c r="B17" s="115"/>
+      <c r="C17" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="25.5">
+      <c r="B18" s="116"/>
+      <c r="C18" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="95"/>
+    </row>
+    <row r="19" spans="2:5" ht="38.25">
+      <c r="B19" s="116"/>
+      <c r="C19" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="116"/>
+      <c r="C20" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="95"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="117"/>
+      <c r="C21" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="90"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="119"/>
+      <c r="D22" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="88"/>
+    </row>
+    <row r="23" spans="2:5" ht="51">
+      <c r="B23" s="115"/>
+      <c r="C23" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="25.5">
+      <c r="B24" s="116"/>
+      <c r="C24" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="117"/>
+      <c r="C25" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="95"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="119"/>
+      <c r="D26" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="88"/>
+    </row>
+    <row r="27" spans="2:5" ht="127.5">
+      <c r="B27" s="115"/>
+      <c r="C27" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="116"/>
+      <c r="C28" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B10" s="118"/>
-      <c r="C10" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B11" s="119" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="89"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="116"/>
-      <c r="C12" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="117"/>
-      <c r="C13" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="38.25">
-      <c r="B14" s="117"/>
-      <c r="C14" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="91" t="s">
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="116"/>
+      <c r="C29" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="116"/>
+      <c r="C30" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="117"/>
+      <c r="C31" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="118"/>
-      <c r="C15" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="96"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="119" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="89"/>
-    </row>
-    <row r="17" spans="2:5" ht="25.5">
-      <c r="B17" s="116"/>
-      <c r="C17" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="25.5">
-      <c r="B18" s="117"/>
-      <c r="C18" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="96"/>
-    </row>
-    <row r="19" spans="2:5" ht="38.25">
-      <c r="B19" s="117"/>
-      <c r="C19" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="117"/>
-      <c r="C20" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="96"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="118"/>
-      <c r="C21" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="91"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="119" t="s">
+      <c r="E31" s="95"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="89"/>
-    </row>
-    <row r="23" spans="2:5" ht="51">
-      <c r="B23" s="116"/>
-      <c r="C23" s="90" t="s">
+      <c r="C32" s="119"/>
+      <c r="D32" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="88"/>
+    </row>
+    <row r="33" spans="2:5" ht="38.25">
+      <c r="B33" s="115"/>
+      <c r="C33" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="25.5">
-      <c r="B24" s="117"/>
-      <c r="C24" s="90" t="s">
+      <c r="D33" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="116"/>
+      <c r="C34" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="116"/>
+      <c r="C35" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="95"/>
+    </row>
+    <row r="36" spans="2:5" ht="25.5">
+      <c r="B36" s="116"/>
+      <c r="C36" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="118"/>
-      <c r="C25" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="96"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="89"/>
-    </row>
-    <row r="27" spans="2:5" ht="127.5">
-      <c r="B27" s="116"/>
-      <c r="C27" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="117"/>
-      <c r="C28" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="117"/>
-      <c r="C29" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="117"/>
-      <c r="C30" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="118"/>
-      <c r="C31" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="96"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="89"/>
-    </row>
-    <row r="33" spans="2:5" ht="38.25">
-      <c r="B33" s="116"/>
-      <c r="C33" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="99" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="117"/>
-      <c r="C34" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="94" t="s">
+      <c r="D36" s="90" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="117"/>
-      <c r="C35" s="95" t="s">
+      <c r="E36" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="96"/>
-    </row>
-    <row r="36" spans="2:5" ht="25.5">
-      <c r="B36" s="117"/>
-      <c r="C36" s="90" t="s">
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="117"/>
+      <c r="C37" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="91" t="s">
+      <c r="D37" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="92" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="118"/>
-      <c r="C37" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="96" t="s">
-        <v>85</v>
+      <c r="E37" s="95" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Forgot password_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Forgot password_v1.0_EN.xlsx
@@ -1035,16 +1035,16 @@
 - Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
-    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
-  </si>
-  <si>
     <t>Input username  in "Nhập email" textbox</t>
   </si>
   <si>
     <t>- Display full item
-- Title is centered
+- Title is centered. Color is blue
 - All items (text and textbox, button) is left-aligned
 - Text's color is black and title's color is blue, required fields marked in red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word that user input is displayed </t>
   </si>
 </sst>
 </file>
@@ -3041,6 +3041,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3058,27 +3079,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6249,14 +6249,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6271,12 +6271,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6288,12 +6288,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6302,15 +6302,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6319,11 +6319,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6346,10 +6346,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6367,10 +6367,10 @@
       <c r="B10" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6384,8 +6384,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6393,8 +6393,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6402,8 +6402,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6411,8 +6411,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6420,8 +6420,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6429,8 +6429,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6438,12 +6438,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6451,6 +6445,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6467,7 +6467,7 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6688,7 +6688,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6749,10 +6749,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Forgot password_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Forgot password_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -989,9 +989,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1045,6 +1042,9 @@
   </si>
   <si>
     <t xml:space="preserve">Word that user input is displayed </t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3041,6 +3041,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3061,24 +3079,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6229,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6249,14 +6249,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6271,12 +6271,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6288,12 +6288,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6302,28 +6302,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="C6" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6346,10 +6346,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6365,12 +6365,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6379,13 +6379,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6393,8 +6393,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6402,8 +6402,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6411,8 +6411,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6420,8 +6420,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6429,8 +6429,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6438,6 +6438,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6445,12 +6451,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6466,7 +6466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6660,7 +6660,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="79.5" customHeight="1">
@@ -6688,7 +6688,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6718,7 +6718,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6737,7 +6737,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6749,10 +6749,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
@@ -6764,7 +6764,7 @@
       <c r="D14" s="60"/>
       <c r="E14" s="61"/>
       <c r="F14" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -6783,7 +6783,7 @@
       <c r="E15" s="63"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6795,10 +6795,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="56" t="s">
         <v>143</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="27">
@@ -6815,10 +6815,10 @@
       <c r="I16" s="57"/>
       <c r="J16" s="58"/>
       <c r="K16" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
@@ -7929,7 +7929,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Forgot password_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Forgot password_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -3041,6 +3041,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3058,27 +3079,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3475,22 +3475,22 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Description: C:\Users\NgocTuan\Desktop\reset.PNG"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3510,16 +3510,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1524000" y="771525"/>
-          <a:ext cx="5353050" cy="1466850"/>
+          <a:off x="1276350" y="1247775"/>
+          <a:ext cx="5762625" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -3527,16 +3524,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -6229,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -6249,14 +6236,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6271,12 +6258,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6288,12 +6275,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6302,15 +6289,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6319,11 +6306,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6346,10 +6333,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6367,10 +6354,10 @@
       <c r="B10" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6384,8 +6371,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6393,8 +6380,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6402,8 +6389,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6411,8 +6398,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6420,8 +6407,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6429,8 +6416,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6438,12 +6425,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6451,6 +6432,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7921,8 +7908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
